--- a/Фопи/ФОПи/Кадри Петришак/Графік відпусток.xlsx
+++ b/Фопи/ФОПи/Кадри Петришак/Графік відпусток.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Фопи\ФОПи\Кадри Петришак\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\ФОПи\Кадри Петришак\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6756"/>
   </bookViews>
   <sheets>
-    <sheet name="Петришак В (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="Петришак В (3)" sheetId="2" r:id="rId1"/>
+    <sheet name="Петришак В (2)" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>01/01-24/01</t>
   </si>
@@ -75,6 +76,12 @@
   </si>
   <si>
     <t xml:space="preserve">            ЗАТВЕРДЖУЮ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">щорічних основних і додаткових відпусток у 2022 році </t>
+  </si>
+  <si>
+    <t>01/05-24/05</t>
   </si>
 </sst>
 </file>
@@ -162,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -185,20 +192,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,29 +493,29 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -518,83 +528,83 @@
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -610,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -627,6 +637,160 @@
     <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.21875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.43307086614173229" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
